--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
     <sheet name="credentials" sheetId="4" r:id="rId4"/>
+    <sheet name="CRMRegistration" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>title</t>
   </si>
@@ -97,6 +98,69 @@
   </si>
   <si>
     <t>base@123</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Select Country</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Bandi</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>bandi.laxmangoud@gmail.com</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>abc@123</t>
   </si>
 </sst>
 </file>
@@ -157,11 +221,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -592,4 +657,109 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>7801020006</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>